--- a/Datascraping/output_excel_files_new/National Institute of Technology Delhi_tables.xlsx
+++ b/Datascraping/output_excel_files_new/National Institute of Technology Delhi_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,12 +611,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -895,42 +895,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>379</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>555</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>821</t>
         </is>
       </c>
     </row>
@@ -1067,8 +1067,8 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1550000(ZerFifteen-Lakh Fifty Thousando)</t>
+          <t>1550000(Fifteen Lakh+Fifty Thousand)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1124,7 +1124,7 @@
       <c r="I12" t="inlineStr">
         <is>
           <t>1760000(Seventeen-Lkah Sixty Thousand)</t>
+Lakh Sixty Thousand )</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2050000(Tenty Lakh+          <t>2050000(Twenty Lakh Fifty Thousand)</t>
         </is>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1510,17 +1510,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>653</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1500000(Fifteen Lakh)</t>
+          <t>1100000(Eleven+Thousand)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1542,12 +1543,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1557,18 +1558,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>867</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>379</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1550000(Fifteen Lakh-Fifty Thousand)</t>
+          <t>1500000(Fifteen+Thousand)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1590,12 +1591,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1415</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1605,17 +1606,18 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>813</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1600000(Sixteen Lakh)</t>
+          <t>1250000(Twelve Lakh+Fifty Thousand)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1675,7 +1677,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1698,7 +1700,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>630</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1767,7 +1769,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>238</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1798,7 +1800,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1901,25 +1903,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Library ( Books, Journals and e-Resources only)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>191213021 (Nineteen Crore Twelve Lakh Thirteen Thousand-Twenty One)</t>
+          <t>183339247 (Eighteen Crore Thirty Three Lakh Thirty Nine+Thousand Two Hundrede Forty Seven)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>184745725 (Eighteen Crore Forty Seven Lakh Forty Five-Thousand Seven Hundred Twenty Five)</t>
+          <t>165806523 (Sixteen Crore Fifty Eight Lakh Six Thousand Five+Hundred Twenty Three)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>260279365 (Twenty Six Crore Two Lakh Seventy Nine-Thousand Three Hundred Sixty Five)</t>
+          <t>170086147 (Seventeen Crore Eighty Six Thousand One+Hundred Forty Seven)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1935,25 +1937,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2374297516 (Two Hundred Thirty Seven Crore Forty Two Lakh-Ninety Seven Thousand Five Hundred Sixteen)</t>
+          <t>2372989697 (Two Hundred Thirty Seven Crore Twenty Nine+Lakh Eighty Nine Thousand Six Hundred Ninety Seven)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1607295909 (One Hundred Sixty Crore Seventy Two Lakh-Ninety Five Thousand Nine Hundred Nine)</t>
+          <t>1599172098 (One Hundred Fifty Nine Crore Ninety One Lakh+Seventy Two Thousand Ninety Eight)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1846375753 (One Hundred Eighty Four Crore Sixty Three-Lakh Seventy Five Thousand Seven Hundred Fifty Three)</t>
+          <t>1827027685 (One Hundred Eighty Two Crore Seventy Lakh+Twenty Thousand Six Hundred Eighty Five)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2003,25 +2005,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>43928631 (Four Crore Thirty Nine Lakh Twenty Eight-Thousand Szix Hundred Thirty One)</t>
+          <t>1396232731 (One Hunred Thirty Nine Crore Sixty Two Lakh+Thirty Thousand Seven Hundred Thirty One)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2635314 (Twenty Six Lakh Thirty Five Thousand Three-Hundred Fourteen)</t>
+          <t>875256347 (Eighty Seven Crore Fifty Two Lakh Fifty Six+Thousand Three Hundred Forty Seven)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3272802 (Thirty Two Lakh Seventy Two Thousand Eight-Hundred Two)</t>
+          <t>745381664 (Seventy Four Crore Fifty Three Lakh Eighty One+Thousand Six Hundred Sixty Four)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2037,26 +2041,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1476113707 (One Hunred Forty Seven Crore Sixty One Lakh-Thirteen Thousand Seven Hundred Seven)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>914195061 (Ninety One Crore Forty One Lakh Ninety Five-Thousand Sixty One)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>787855930 (Seventy Eight Crore Seventy Eight Lakh Fifty Five-Thousand Nine Hundred Thirty)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2070,24 +2070,20 @@
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2101,22 +2097,14 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2130,12 +2118,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3899613736 (Three Hundred Eighty Nine Crore Ninety Six+Lakh Thirteen Thousand Seven Hundred Thirty Six)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3395121711 (Three Hundred And Thirty Nine Crore Fifty One+Lakh Twenty One Thousand Seven Hundred Eleven)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3428644542 (Three Forty Two Crore Eighty Six Lakh Forty+Four Thousand Five Hundred Forty Two)</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2149,25 +2152,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3991424049 (Three Hundred Ninety Nine Crore Fourteen Lakh-Twenty Four Thousand Forty Nine)</t>
+          <t>3659085996 (Three Hundred Sixty Five Crore Ninety Lakh+Eighty Five Thousand Nine Hundred Ninety Six)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3476019501 (Three Hundred Forty Seven Crore Sixty Lakh-Nineteen Thousand Five Hundred One)</t>
+          <t>3637475618 (Three Hundred Sixty Three Crore Seventy Four+Lakh Seventy Five Thousand Six Hundred Eighteen)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3510898076 (Three Hundred Fifty One Crore Eight Lakh-Ninety Eight Thousand Seventy Six)</t>
+          <t>3200750453 (Three Hundred And Twenty Crore Seven Lakh+Fifty Thousand Four Hundred Fifty Three)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2183,27 +2188,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3710748858 (Three Hundred Seventy One Crore Seventy Four-Lakh Eight Thousand Eight Hundred Fifty Eight )</t>
+          <t>2654267 (Twenty Six Lakh Fifty Four Thousand Two Hundred+Sixty Seven)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3658556787 (Three Hundred Sixty Five Crore Eighty Five Lakh-Fifty Six Thousand Seven Eighty Seven)</t>
+          <t>5348744 (Fifty Three Lakh Forty Eight Thousand Seven+Hundred Forty Four)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3216833115 (Three Hundred Twenty One Crore Sixty Eight-Lakh Thirty Three Thousand One Hundredn Fifteen)</t>
+          <t>13001549 (One Crore Thirty Lakh One Thousand Five+Hundred Forty Nine)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2219,25 +2222,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4904145 (Forty Nine Lakh Four Thousand One Hundred Forty-Five)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6573578 (Sixty Five Lakh Seventy Three Thousand Five-Hundred Seventy Eight)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14075759 (One Crore Forty Lakh Seventy Five Thousand-Seven Hundred Fifty Nine)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2253,22 +2253,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>714</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>581</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>624</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2284,22 +2284,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2315,22 +2315,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>3748347370</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2614152161</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>2275026000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2346,22 +2346,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3798462730</t>
+          <t>Three Hundred Seventy Four Crore Eighty Three Lakh Forty+Seven Thousand Three Hundred Seventy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2663882947</t>
+          <t>Two Hundred Sixty One Crore Forty One Lakh Fifty Two+Thousand One Hundred Sixty One</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2327045750</t>
+          <t>Two Hundred Twenty Seven Crore Fifty Lakh Twenty Six+Thousand</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2377,25 +2380,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Three Hundred Seventy NIne Crore Eighty Four Lakh Sixty-Two Thousand Seven Hundred Thirty</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Two Hundred Thirty Two Crore Seventy Lakh Forty Five-Thousand Seven Hundred Fifty</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Two Hundred Eleven Crore Eighteen Lakhs Eleven Thousand-Four Fifty Five</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2411,22 +2411,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>362</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2442,22 +2442,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>314</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2473,22 +2473,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>431097403</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>377449556</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>309608826</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2504,22 +2504,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>441274688</t>
+          <t>Forty Three Crore Ten Lakh Ninety SZeven Thousand Four+Hundred Three</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>392480556</t>
+          <t>Thirty Seven Crore Seventy Four Lakh Forty Nine Thousand+Five Hundred Fifty Six</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>314351413</t>
+          <t>Thirty Crore Ninety Six Lakh Eight Thousand Eight Hundred+Twenty Six</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2535,27 +2538,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Forty Four Crore Twelve Lakh Seventy Four Thousand Six-Hundred Eighty Eight</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Thirty Nine Crore Twenty Four Lakh Eighty Thousand Five-Hundred Fifty Six</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thirty One Crore Forty Three Lakh Fifty One Thousand Four-Hundred Thirteen</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2569,24 +2561,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2600,25 +2585,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2632,24 +2608,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4865</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1224</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2629</t>
-        </is>
-      </c>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2660,142 +2628,6 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>319358716</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>32627093</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>77222319</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Thirty One Crore Ninety Three Lakh Fifty Eight Thousand-Seven Hundred Sixteen</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Three Crore Twenty Six Lakh Twenty Seven Thousand Ninety-Three</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Seven Crore Seventy Two Lakh Twenty Two Thousand Three-Hundred Nineteen</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
